--- a/Liver-GSH-NAD/RankZ/RankZ-sexgen/results/Genes MGI/GlutathioneGenesMGI - rankZ sexgen.xlsx
+++ b/Liver-GSH-NAD/RankZ/RankZ-sexgen/results/Genes MGI/GlutathioneGenesMGI - rankZ sexgen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/rlg09972_uga_edu/Documents/Pazdro Lab/R01 Redox/Analysis and Results/QTL Mapping - Liver/RankZ/RankZ - sexgen/results/Genes MGI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beccagould/Rqtl2-Glutathione-Genetics/Liver-GSH-NAD/RankZ/RankZ-sexgen/results/Genes MGI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_9386FDFF605BFADB58154588CF3FE2AEDBC23579" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{32A7F4DC-E39A-624B-B460-4B478C639799}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CF4470-EBDF-CE4F-A08C-5B2039C80E01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12020" yWindow="500" windowWidth="16800" windowHeight="16040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GSH chr14" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2871" uniqueCount="825">
   <si>
     <t>chr</t>
   </si>
@@ -2494,6 +2494,9 @@
   </si>
   <si>
     <t>EDITED</t>
+  </si>
+  <si>
+    <t>only protein coding and functional RNA genes</t>
   </si>
 </sst>
 </file>
@@ -2901,7 +2904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="A87" sqref="A87:D120"/>
     </sheetView>
   </sheetViews>
@@ -9699,9 +9702,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O151"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -12806,6 +12811,1555 @@
         <v>822</v>
       </c>
     </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>823</v>
+      </c>
+      <c r="B84" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>5.8847930000000002</v>
+      </c>
+      <c r="B86">
+        <v>7.4124800000000004</v>
+      </c>
+      <c r="C86" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" t="s">
+        <v>426</v>
+      </c>
+      <c r="E86" t="s">
+        <v>429</v>
+      </c>
+      <c r="F86" t="s">
+        <v>29</v>
+      </c>
+      <c r="G86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>7.7678909999999997</v>
+      </c>
+      <c r="B87">
+        <v>7.7715949999999996</v>
+      </c>
+      <c r="C87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" t="s">
+        <v>436</v>
+      </c>
+      <c r="E87" t="s">
+        <v>439</v>
+      </c>
+      <c r="F87" t="s">
+        <v>36</v>
+      </c>
+      <c r="G87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>7.8701020000000002</v>
+      </c>
+      <c r="B88">
+        <v>7.8798589999999997</v>
+      </c>
+      <c r="C88" t="s">
+        <v>31</v>
+      </c>
+      <c r="D88" t="s">
+        <v>441</v>
+      </c>
+      <c r="E88" t="s">
+        <v>444</v>
+      </c>
+      <c r="F88" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>8.2039749999999998</v>
+      </c>
+      <c r="B89">
+        <v>8.2042479999999998</v>
+      </c>
+      <c r="C89" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" t="s">
+        <v>451</v>
+      </c>
+      <c r="E89" t="s">
+        <v>454</v>
+      </c>
+      <c r="F89" t="s">
+        <v>250</v>
+      </c>
+      <c r="G89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>8.3369929999999997</v>
+      </c>
+      <c r="B90">
+        <v>8.3370960000000007</v>
+      </c>
+      <c r="C90" t="s">
+        <v>31</v>
+      </c>
+      <c r="D90" t="s">
+        <v>456</v>
+      </c>
+      <c r="E90" t="s">
+        <v>459</v>
+      </c>
+      <c r="F90" t="s">
+        <v>181</v>
+      </c>
+      <c r="G90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>8.3389059999999997</v>
+      </c>
+      <c r="B91">
+        <v>8.3650120000000001</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" t="s">
+        <v>461</v>
+      </c>
+      <c r="E91" t="s">
+        <v>464</v>
+      </c>
+      <c r="F91" t="s">
+        <v>36</v>
+      </c>
+      <c r="G91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>8.4028139999999993</v>
+      </c>
+      <c r="B92">
+        <v>8.4029570000000007</v>
+      </c>
+      <c r="C92" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" t="s">
+        <v>466</v>
+      </c>
+      <c r="E92" t="s">
+        <v>469</v>
+      </c>
+      <c r="F92" t="s">
+        <v>52</v>
+      </c>
+      <c r="G92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>8.4092749999999992</v>
+      </c>
+      <c r="B93">
+        <v>8.4251360000000002</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" t="s">
+        <v>471</v>
+      </c>
+      <c r="E93" t="s">
+        <v>474</v>
+      </c>
+      <c r="F93" t="s">
+        <v>29</v>
+      </c>
+      <c r="G93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>8.4494980000000002</v>
+      </c>
+      <c r="B94">
+        <v>8.4497859999999996</v>
+      </c>
+      <c r="C94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" t="s">
+        <v>476</v>
+      </c>
+      <c r="E94" t="s">
+        <v>479</v>
+      </c>
+      <c r="F94" t="s">
+        <v>250</v>
+      </c>
+      <c r="G94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>8.457687</v>
+      </c>
+      <c r="B95">
+        <v>8.4736919999999998</v>
+      </c>
+      <c r="C95" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" t="s">
+        <v>481</v>
+      </c>
+      <c r="E95" t="s">
+        <v>484</v>
+      </c>
+      <c r="F95" t="s">
+        <v>36</v>
+      </c>
+      <c r="G95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>8.4707509999999999</v>
+      </c>
+      <c r="B96">
+        <v>8.4906839999999999</v>
+      </c>
+      <c r="C96" t="s">
+        <v>31</v>
+      </c>
+      <c r="D96" t="s">
+        <v>486</v>
+      </c>
+      <c r="E96" t="s">
+        <v>489</v>
+      </c>
+      <c r="F96" t="s">
+        <v>29</v>
+      </c>
+      <c r="G96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>8.4806600000000003</v>
+      </c>
+      <c r="B97">
+        <v>8.4807410000000001</v>
+      </c>
+      <c r="C97" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" t="s">
+        <v>491</v>
+      </c>
+      <c r="E97" t="s">
+        <v>494</v>
+      </c>
+      <c r="F97" t="s">
+        <v>52</v>
+      </c>
+      <c r="G97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>8.5134290000000004</v>
+      </c>
+      <c r="B98">
+        <v>8.6215679999999999</v>
+      </c>
+      <c r="C98" t="s">
+        <v>31</v>
+      </c>
+      <c r="D98" t="s">
+        <v>496</v>
+      </c>
+      <c r="E98" t="s">
+        <v>499</v>
+      </c>
+      <c r="F98" t="s">
+        <v>29</v>
+      </c>
+      <c r="G98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>8.6189490000000006</v>
+      </c>
+      <c r="B99">
+        <v>8.6212180000000007</v>
+      </c>
+      <c r="C99" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" t="s">
+        <v>506</v>
+      </c>
+      <c r="E99" t="s">
+        <v>507</v>
+      </c>
+      <c r="F99" t="s">
+        <v>29</v>
+      </c>
+      <c r="G99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>8.6231629999999999</v>
+      </c>
+      <c r="B100">
+        <v>8.6232699999999998</v>
+      </c>
+      <c r="C100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" t="s">
+        <v>514</v>
+      </c>
+      <c r="E100" t="s">
+        <v>517</v>
+      </c>
+      <c r="F100" t="s">
+        <v>170</v>
+      </c>
+      <c r="G100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>8.633229</v>
+      </c>
+      <c r="B101">
+        <v>8.6377120000000005</v>
+      </c>
+      <c r="C101" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" t="s">
+        <v>524</v>
+      </c>
+      <c r="E101" t="s">
+        <v>527</v>
+      </c>
+      <c r="F101" t="s">
+        <v>29</v>
+      </c>
+      <c r="G101" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>8.6376740000000005</v>
+      </c>
+      <c r="B102">
+        <v>8.6624669999999995</v>
+      </c>
+      <c r="C102" t="s">
+        <v>31</v>
+      </c>
+      <c r="D102" t="s">
+        <v>529</v>
+      </c>
+      <c r="E102" t="s">
+        <v>532</v>
+      </c>
+      <c r="F102" t="s">
+        <v>29</v>
+      </c>
+      <c r="G102" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>8.6585800000000006</v>
+      </c>
+      <c r="B103">
+        <v>8.6721550000000001</v>
+      </c>
+      <c r="C103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" t="s">
+        <v>534</v>
+      </c>
+      <c r="E103" t="s">
+        <v>537</v>
+      </c>
+      <c r="F103" t="s">
+        <v>29</v>
+      </c>
+      <c r="G103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>8.6717180000000003</v>
+      </c>
+      <c r="B104">
+        <v>8.6839200000000005</v>
+      </c>
+      <c r="C104" t="s">
+        <v>31</v>
+      </c>
+      <c r="D104" t="s">
+        <v>539</v>
+      </c>
+      <c r="E104" t="s">
+        <v>542</v>
+      </c>
+      <c r="F104" t="s">
+        <v>29</v>
+      </c>
+      <c r="G104" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>8.6887220000000003</v>
+      </c>
+      <c r="B105">
+        <v>8.7923080000000002</v>
+      </c>
+      <c r="C105" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" t="s">
+        <v>544</v>
+      </c>
+      <c r="E105" t="s">
+        <v>547</v>
+      </c>
+      <c r="F105" t="s">
+        <v>29</v>
+      </c>
+      <c r="G105" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>8.7661689999999997</v>
+      </c>
+      <c r="B106">
+        <v>8.7662759999999995</v>
+      </c>
+      <c r="C106" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" t="s">
+        <v>549</v>
+      </c>
+      <c r="E106" t="s">
+        <v>552</v>
+      </c>
+      <c r="F106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G106" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>8.8300999999999998</v>
+      </c>
+      <c r="B107">
+        <v>8.858924</v>
+      </c>
+      <c r="C107" t="s">
+        <v>31</v>
+      </c>
+      <c r="D107" t="s">
+        <v>554</v>
+      </c>
+      <c r="E107" t="s">
+        <v>557</v>
+      </c>
+      <c r="F107" t="s">
+        <v>29</v>
+      </c>
+      <c r="G107" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>8.8730790000000006</v>
+      </c>
+      <c r="B108">
+        <v>8.8731709999999993</v>
+      </c>
+      <c r="C108" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" t="s">
+        <v>559</v>
+      </c>
+      <c r="E108" t="s">
+        <v>563</v>
+      </c>
+      <c r="F108" t="s">
+        <v>562</v>
+      </c>
+      <c r="G108" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>8.8816140000000008</v>
+      </c>
+      <c r="B109">
+        <v>8.8960500000000007</v>
+      </c>
+      <c r="C109" t="s">
+        <v>31</v>
+      </c>
+      <c r="D109" t="s">
+        <v>565</v>
+      </c>
+      <c r="E109" t="s">
+        <v>568</v>
+      </c>
+      <c r="F109" t="s">
+        <v>36</v>
+      </c>
+      <c r="G109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>8.9449129999999997</v>
+      </c>
+      <c r="B110">
+        <v>8.9699000000000009</v>
+      </c>
+      <c r="C110" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110" t="s">
+        <v>575</v>
+      </c>
+      <c r="E110" t="s">
+        <v>578</v>
+      </c>
+      <c r="F110" t="s">
+        <v>36</v>
+      </c>
+      <c r="G110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>8.9975269999999998</v>
+      </c>
+      <c r="B111">
+        <v>9.0072390000000002</v>
+      </c>
+      <c r="C111" t="s">
+        <v>31</v>
+      </c>
+      <c r="D111" t="s">
+        <v>585</v>
+      </c>
+      <c r="E111" t="s">
+        <v>588</v>
+      </c>
+      <c r="F111" t="s">
+        <v>36</v>
+      </c>
+      <c r="G111" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>9.0499720000000003</v>
+      </c>
+      <c r="B112">
+        <v>9.0554199999999998</v>
+      </c>
+      <c r="C112" t="s">
+        <v>31</v>
+      </c>
+      <c r="D112" t="s">
+        <v>590</v>
+      </c>
+      <c r="E112" t="s">
+        <v>593</v>
+      </c>
+      <c r="F112" t="s">
+        <v>36</v>
+      </c>
+      <c r="G112" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>9.0793959999999991</v>
+      </c>
+      <c r="B113">
+        <v>9.1374440000000003</v>
+      </c>
+      <c r="C113" t="s">
+        <v>31</v>
+      </c>
+      <c r="D113" t="s">
+        <v>595</v>
+      </c>
+      <c r="E113" t="s">
+        <v>598</v>
+      </c>
+      <c r="F113" t="s">
+        <v>36</v>
+      </c>
+      <c r="G113" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>9.1587700000000005</v>
+      </c>
+      <c r="B114">
+        <v>9.1623339999999995</v>
+      </c>
+      <c r="C114" t="s">
+        <v>31</v>
+      </c>
+      <c r="D114" t="s">
+        <v>605</v>
+      </c>
+      <c r="E114" t="s">
+        <v>608</v>
+      </c>
+      <c r="F114" t="s">
+        <v>36</v>
+      </c>
+      <c r="G114" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>9.2799720000000008</v>
+      </c>
+      <c r="B115">
+        <v>9.2905650000000009</v>
+      </c>
+      <c r="C115" t="s">
+        <v>31</v>
+      </c>
+      <c r="D115" t="s">
+        <v>610</v>
+      </c>
+      <c r="E115" t="s">
+        <v>613</v>
+      </c>
+      <c r="F115" t="s">
+        <v>36</v>
+      </c>
+      <c r="G115" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>9.5678979999999996</v>
+      </c>
+      <c r="B116">
+        <v>9.9964999999999993</v>
+      </c>
+      <c r="C116" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" t="s">
+        <v>615</v>
+      </c>
+      <c r="E116" t="s">
+        <v>618</v>
+      </c>
+      <c r="F116" t="s">
+        <v>29</v>
+      </c>
+      <c r="G116" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>9.9352300000000007</v>
+      </c>
+      <c r="B117">
+        <v>9.9358299999999993</v>
+      </c>
+      <c r="C117" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" t="s">
+        <v>625</v>
+      </c>
+      <c r="E117" t="s">
+        <v>626</v>
+      </c>
+      <c r="F117" t="s">
+        <v>250</v>
+      </c>
+      <c r="G117" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>9.9972089999999998</v>
+      </c>
+      <c r="B118">
+        <v>10.005988</v>
+      </c>
+      <c r="C118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" t="s">
+        <v>628</v>
+      </c>
+      <c r="E118" t="s">
+        <v>631</v>
+      </c>
+      <c r="F118" t="s">
+        <v>36</v>
+      </c>
+      <c r="G118" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>10.170197</v>
+      </c>
+      <c r="B119">
+        <v>10.174911</v>
+      </c>
+      <c r="C119" t="s">
+        <v>31</v>
+      </c>
+      <c r="D119" t="s">
+        <v>643</v>
+      </c>
+      <c r="E119" t="s">
+        <v>646</v>
+      </c>
+      <c r="F119" t="s">
+        <v>29</v>
+      </c>
+      <c r="G119" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>10.186292999999999</v>
+      </c>
+      <c r="B120">
+        <v>10.227524000000001</v>
+      </c>
+      <c r="C120" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" t="s">
+        <v>648</v>
+      </c>
+      <c r="E120" t="s">
+        <v>651</v>
+      </c>
+      <c r="F120" t="s">
+        <v>36</v>
+      </c>
+      <c r="G120" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>10.192638000000001</v>
+      </c>
+      <c r="B121">
+        <v>10.251478000000001</v>
+      </c>
+      <c r="C121" t="s">
+        <v>31</v>
+      </c>
+      <c r="D121" t="s">
+        <v>653</v>
+      </c>
+      <c r="E121" t="s">
+        <v>656</v>
+      </c>
+      <c r="F121" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>10.237918000000001</v>
+      </c>
+      <c r="B122">
+        <v>10.238020000000001</v>
+      </c>
+      <c r="C122" t="s">
+        <v>31</v>
+      </c>
+      <c r="D122" t="s">
+        <v>658</v>
+      </c>
+      <c r="E122" t="s">
+        <v>661</v>
+      </c>
+      <c r="F122" t="s">
+        <v>181</v>
+      </c>
+      <c r="G122" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>10.27375</v>
+      </c>
+      <c r="B123">
+        <v>10.273821</v>
+      </c>
+      <c r="C123" t="s">
+        <v>31</v>
+      </c>
+      <c r="D123" t="s">
+        <v>668</v>
+      </c>
+      <c r="E123" t="s">
+        <v>671</v>
+      </c>
+      <c r="F123" t="s">
+        <v>170</v>
+      </c>
+      <c r="G123" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>10.276947</v>
+      </c>
+      <c r="B124">
+        <v>10.277122</v>
+      </c>
+      <c r="C124" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" t="s">
+        <v>673</v>
+      </c>
+      <c r="E124" t="s">
+        <v>674</v>
+      </c>
+      <c r="F124" t="s">
+        <v>126</v>
+      </c>
+      <c r="G124" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>10.281749</v>
+      </c>
+      <c r="B125">
+        <v>10.313967999999999</v>
+      </c>
+      <c r="C125" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125" t="s">
+        <v>676</v>
+      </c>
+      <c r="E125" t="s">
+        <v>679</v>
+      </c>
+      <c r="F125" t="s">
+        <v>29</v>
+      </c>
+      <c r="G125" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>10.324104999999999</v>
+      </c>
+      <c r="B126">
+        <v>10.347591</v>
+      </c>
+      <c r="C126" t="s">
+        <v>18</v>
+      </c>
+      <c r="D126" t="s">
+        <v>681</v>
+      </c>
+      <c r="E126" t="s">
+        <v>684</v>
+      </c>
+      <c r="F126" t="s">
+        <v>36</v>
+      </c>
+      <c r="G126" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>10.349641999999999</v>
+      </c>
+      <c r="B127">
+        <v>10.353405</v>
+      </c>
+      <c r="C127" t="s">
+        <v>31</v>
+      </c>
+      <c r="D127" t="s">
+        <v>686</v>
+      </c>
+      <c r="E127" t="s">
+        <v>689</v>
+      </c>
+      <c r="F127" t="s">
+        <v>36</v>
+      </c>
+      <c r="G127" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>10.357948</v>
+      </c>
+      <c r="B128">
+        <v>10.395490000000001</v>
+      </c>
+      <c r="C128" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" t="s">
+        <v>691</v>
+      </c>
+      <c r="E128" t="s">
+        <v>694</v>
+      </c>
+      <c r="F128" t="s">
+        <v>29</v>
+      </c>
+      <c r="G128" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>10.37135</v>
+      </c>
+      <c r="B129">
+        <v>10.378933999999999</v>
+      </c>
+      <c r="C129" t="s">
+        <v>31</v>
+      </c>
+      <c r="D129" t="s">
+        <v>696</v>
+      </c>
+      <c r="E129" t="s">
+        <v>699</v>
+      </c>
+      <c r="F129" t="s">
+        <v>36</v>
+      </c>
+      <c r="G129" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>10.411879000000001</v>
+      </c>
+      <c r="B130">
+        <v>10.424428000000001</v>
+      </c>
+      <c r="C130" t="s">
+        <v>31</v>
+      </c>
+      <c r="D130" t="s">
+        <v>701</v>
+      </c>
+      <c r="E130" t="s">
+        <v>704</v>
+      </c>
+      <c r="F130" t="s">
+        <v>29</v>
+      </c>
+      <c r="G130" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>10.419532999999999</v>
+      </c>
+      <c r="B131">
+        <v>10.447391</v>
+      </c>
+      <c r="C131" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" t="s">
+        <v>706</v>
+      </c>
+      <c r="E131" t="s">
+        <v>709</v>
+      </c>
+      <c r="F131" t="s">
+        <v>29</v>
+      </c>
+      <c r="G131" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>10.470794</v>
+      </c>
+      <c r="B132">
+        <v>10.473103</v>
+      </c>
+      <c r="C132" t="s">
+        <v>31</v>
+      </c>
+      <c r="D132" t="s">
+        <v>711</v>
+      </c>
+      <c r="E132" t="s">
+        <v>714</v>
+      </c>
+      <c r="F132" t="s">
+        <v>36</v>
+      </c>
+      <c r="G132" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>10.480014000000001</v>
+      </c>
+      <c r="B133">
+        <v>10.528606</v>
+      </c>
+      <c r="C133" t="s">
+        <v>31</v>
+      </c>
+      <c r="D133" t="s">
+        <v>716</v>
+      </c>
+      <c r="E133" t="s">
+        <v>719</v>
+      </c>
+      <c r="F133" t="s">
+        <v>29</v>
+      </c>
+      <c r="G133" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>10.502530999999999</v>
+      </c>
+      <c r="B134">
+        <v>10.543122</v>
+      </c>
+      <c r="C134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" t="s">
+        <v>721</v>
+      </c>
+      <c r="E134" t="s">
+        <v>724</v>
+      </c>
+      <c r="F134" t="s">
+        <v>29</v>
+      </c>
+      <c r="G134" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>10.545339</v>
+      </c>
+      <c r="B135">
+        <v>10.744878</v>
+      </c>
+      <c r="C135" t="s">
+        <v>31</v>
+      </c>
+      <c r="D135" t="s">
+        <v>726</v>
+      </c>
+      <c r="E135" t="s">
+        <v>729</v>
+      </c>
+      <c r="F135" t="s">
+        <v>29</v>
+      </c>
+      <c r="G135" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>10.668341</v>
+      </c>
+      <c r="B136">
+        <v>10.684257000000001</v>
+      </c>
+      <c r="C136" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" t="s">
+        <v>731</v>
+      </c>
+      <c r="E136" t="s">
+        <v>734</v>
+      </c>
+      <c r="F136" t="s">
+        <v>36</v>
+      </c>
+      <c r="G136" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>10.78224</v>
+      </c>
+      <c r="B137">
+        <v>10.785536</v>
+      </c>
+      <c r="C137" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137" t="s">
+        <v>736</v>
+      </c>
+      <c r="E137" t="s">
+        <v>739</v>
+      </c>
+      <c r="F137" t="s">
+        <v>29</v>
+      </c>
+      <c r="G137" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>10.787934999999999</v>
+      </c>
+      <c r="B138">
+        <v>10.78866</v>
+      </c>
+      <c r="C138" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" t="s">
+        <v>741</v>
+      </c>
+      <c r="E138" t="s">
+        <v>744</v>
+      </c>
+      <c r="F138" t="s">
+        <v>29</v>
+      </c>
+      <c r="G138" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>10.790505</v>
+      </c>
+      <c r="B139">
+        <v>10.790914000000001</v>
+      </c>
+      <c r="C139" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" t="s">
+        <v>746</v>
+      </c>
+      <c r="E139" t="s">
+        <v>749</v>
+      </c>
+      <c r="F139" t="s">
+        <v>29</v>
+      </c>
+      <c r="G139" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>10.791377000000001</v>
+      </c>
+      <c r="B140">
+        <v>10.796134</v>
+      </c>
+      <c r="C140" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" t="s">
+        <v>751</v>
+      </c>
+      <c r="E140" t="s">
+        <v>754</v>
+      </c>
+      <c r="F140" t="s">
+        <v>29</v>
+      </c>
+      <c r="G140" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>10.791971</v>
+      </c>
+      <c r="B141">
+        <v>10.796476</v>
+      </c>
+      <c r="C141" t="s">
+        <v>31</v>
+      </c>
+      <c r="D141" t="s">
+        <v>756</v>
+      </c>
+      <c r="E141" t="s">
+        <v>759</v>
+      </c>
+      <c r="F141" t="s">
+        <v>36</v>
+      </c>
+      <c r="G141" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>10.796326000000001</v>
+      </c>
+      <c r="B142">
+        <v>10.805839000000001</v>
+      </c>
+      <c r="C142" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" t="s">
+        <v>761</v>
+      </c>
+      <c r="E142" t="s">
+        <v>764</v>
+      </c>
+      <c r="F142" t="s">
+        <v>29</v>
+      </c>
+      <c r="G142" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>10.796936000000001</v>
+      </c>
+      <c r="B143">
+        <v>10.812726</v>
+      </c>
+      <c r="C143" t="s">
+        <v>31</v>
+      </c>
+      <c r="D143" t="s">
+        <v>766</v>
+      </c>
+      <c r="E143" t="s">
+        <v>769</v>
+      </c>
+      <c r="F143" t="s">
+        <v>36</v>
+      </c>
+      <c r="G143" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>10.812915</v>
+      </c>
+      <c r="B144">
+        <v>10.812994</v>
+      </c>
+      <c r="C144" t="s">
+        <v>31</v>
+      </c>
+      <c r="D144" t="s">
+        <v>776</v>
+      </c>
+      <c r="E144" t="s">
+        <v>779</v>
+      </c>
+      <c r="F144" t="s">
+        <v>29</v>
+      </c>
+      <c r="G144" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>10.827927000000001</v>
+      </c>
+      <c r="B145">
+        <v>10.833507000000001</v>
+      </c>
+      <c r="C145" t="s">
+        <v>31</v>
+      </c>
+      <c r="D145" t="s">
+        <v>781</v>
+      </c>
+      <c r="E145" t="s">
+        <v>784</v>
+      </c>
+      <c r="F145" t="s">
+        <v>36</v>
+      </c>
+      <c r="G145" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>10.835058999999999</v>
+      </c>
+      <c r="B146">
+        <v>10.892965999999999</v>
+      </c>
+      <c r="C146" t="s">
+        <v>31</v>
+      </c>
+      <c r="D146" t="s">
+        <v>791</v>
+      </c>
+      <c r="E146" t="s">
+        <v>794</v>
+      </c>
+      <c r="F146" t="s">
+        <v>29</v>
+      </c>
+      <c r="G146" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>10.912012000000001</v>
+      </c>
+      <c r="B147">
+        <v>10.937306</v>
+      </c>
+      <c r="C147" t="s">
+        <v>18</v>
+      </c>
+      <c r="D147" t="s">
+        <v>801</v>
+      </c>
+      <c r="E147" t="s">
+        <v>804</v>
+      </c>
+      <c r="F147" t="s">
+        <v>36</v>
+      </c>
+      <c r="G147" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>10.959273</v>
+      </c>
+      <c r="B148">
+        <v>11.066157</v>
+      </c>
+      <c r="C148" t="s">
+        <v>18</v>
+      </c>
+      <c r="D148" t="s">
+        <v>806</v>
+      </c>
+      <c r="E148" t="s">
+        <v>809</v>
+      </c>
+      <c r="F148" t="s">
+        <v>29</v>
+      </c>
+      <c r="G148" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>10.965724</v>
+      </c>
+      <c r="B149">
+        <v>10.965849</v>
+      </c>
+      <c r="C149" t="s">
+        <v>31</v>
+      </c>
+      <c r="D149" t="s">
+        <v>811</v>
+      </c>
+      <c r="E149" t="s">
+        <v>814</v>
+      </c>
+      <c r="F149" t="s">
+        <v>170</v>
+      </c>
+      <c r="G149" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>10.975209</v>
+      </c>
+      <c r="B150">
+        <v>10.977392</v>
+      </c>
+      <c r="C150" t="s">
+        <v>18</v>
+      </c>
+      <c r="D150" t="s">
+        <v>816</v>
+      </c>
+      <c r="E150" t="s">
+        <v>817</v>
+      </c>
+      <c r="F150" t="s">
+        <v>126</v>
+      </c>
+      <c r="G150" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>10.994386</v>
+      </c>
+      <c r="B151">
+        <v>10.994569</v>
+      </c>
+      <c r="C151" t="s">
+        <v>31</v>
+      </c>
+      <c r="D151" t="s">
+        <v>819</v>
+      </c>
+      <c r="E151" t="s">
+        <v>822</v>
+      </c>
+      <c r="F151" t="s">
+        <v>181</v>
+      </c>
+      <c r="G151" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
